--- a/biology/Botanique/Rhode_Island_Greening/Rhode_Island_Greening.xlsx
+++ b/biology/Botanique/Rhode_Island_Greening/Rhode_Island_Greening.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme Rhode Island Greening est le fruit d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Burlington,
 Ganges,
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété provient de  Green's End, Newport, Rhode Island, aux États-Unis d'Amérique. Elle aurait été obtenue en 1650,
 </t>
@@ -574,7 +590,9 @@
           <t>Description du fruit</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Usage : pomme d'hiver pour tartes, ... la meilleure des pommes à cuire, pomme à couteau après murissement au fruitier.
 Couleur de peau : verte, jaunissant un peu à la maturité.
@@ -607,7 +625,9 @@
           <t>Fleur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Parfumée.</t>
         </is>
@@ -637,7 +657,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Variété triploïde, autostérile; une difficulté pour une utilisation dans un petit jardin.
 Groupe de floraison: D, 1 jour après Golden Delicious</t>
@@ -668,7 +690,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Susceptibilité moyenne aux maladies.
 Tavelure: ???
@@ -703,9 +727,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Vigueur du cultivar : forte[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vigueur du cultivar : forte.
 Porte-greffe : M9, Bud.9 ou Geneva 19 pour un basse-tige de 2,50 m
 Conservation:  jusque février</t>
         </is>
